--- a/Revisão/Revisão_1.xlsx
+++ b/Revisão/Revisão_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Cursos</t>
   </si>
@@ -96,14 +96,43 @@
   </si>
   <si>
     <t>ID_Curso</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>select * from</t>
+  </si>
+  <si>
+    <t>inner join</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Gestão</t>
+  </si>
+  <si>
+    <t>Cursos.Cursos_ID_Professor</t>
+  </si>
+  <si>
+    <t>Professores.Professores_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -197,11 +226,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,19 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,6 +287,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,55 +610,55 @@
     <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -593,16 +671,16 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -615,16 +693,16 @@
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -637,9 +715,9 @@
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -655,9 +733,9 @@
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -667,7 +745,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -675,41 +753,55 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="I10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -724,10 +816,17 @@
         <v>1</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -742,22 +841,21 @@
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="11"/>
       <c r="E16" s="2">
         <v>2</v>
       </c>
@@ -765,15 +863,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>1</v>
       </c>
@@ -781,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -789,16 +887,109 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E3:H3"/>
@@ -806,5 +997,6 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>